--- a/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="f5_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5_1 f5_1  0-1-220-400 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki f5_1</a:t>
+              <a:t>Izoterma adsorpcji probki f5_1 z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>f5_1!$A$3:$A$50</c:f>
+              <c:f>'Figure 5_1 f5_1  0-1-220-400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>f5_1!$B$3:$B$50</c:f>
+              <c:f>'Figure 5_1 f5_1  0-1-220-400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="220"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1292,389 +1292,541 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0003</v>
+        <v>-0</v>
       </c>
       <c r="B3" s="0">
-        <v>241.5258</v>
+        <v>241.3477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="B4" s="0">
-        <v>257.9954</v>
+        <v>257.7224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0042</v>
+        <v>0.0044</v>
       </c>
       <c r="B5" s="0">
-        <v>275.0667</v>
+        <v>274.3396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0008</v>
+        <v>0.0076</v>
       </c>
       <c r="B6" s="0">
-        <v>247.7644</v>
+        <v>300.903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.009</v>
+        <v>0.0101</v>
       </c>
       <c r="B7" s="0">
-        <v>302.4359</v>
+        <v>304.9057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0029</v>
+        <v>0.0101</v>
       </c>
       <c r="B8" s="0">
-        <v>266.0849</v>
+        <v>304.9057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0051</v>
+        <v>0.0183</v>
       </c>
       <c r="B9" s="0">
-        <v>284.4054</v>
+        <v>315.3369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0073</v>
+        <v>0.0297</v>
       </c>
       <c r="B10" s="0">
-        <v>294.1903</v>
+        <v>324.9191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0192</v>
+        <v>0.0386</v>
       </c>
       <c r="B11" s="0">
-        <v>316.4548</v>
+        <v>331.469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0138</v>
+        <v>0.048</v>
       </c>
       <c r="B12" s="0">
-        <v>308.4719</v>
+        <v>336.9272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0301</v>
+        <v>0.0727</v>
       </c>
       <c r="B13" s="0">
-        <v>324.581</v>
+        <v>347.1159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0387</v>
+        <v>0.1024</v>
       </c>
       <c r="B14" s="0">
-        <v>330.6751</v>
+        <v>356.5768</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0507</v>
+        <v>0.1302</v>
       </c>
       <c r="B15" s="0">
-        <v>337.3991</v>
+        <v>362.2776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0637</v>
+        <v>0.1593</v>
       </c>
       <c r="B16" s="0">
-        <v>343.614</v>
+        <v>367.1294</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0789</v>
+        <v>0.1884</v>
       </c>
       <c r="B17" s="0">
-        <v>348.9898</v>
+        <v>370.6469</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0962</v>
+        <v>0.2149</v>
       </c>
       <c r="B18" s="0">
-        <v>354.3796</v>
+        <v>373.1941</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.115</v>
+        <v>0.237</v>
       </c>
       <c r="B19" s="0">
-        <v>359.4981</v>
+        <v>374.6496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1409</v>
+        <v>0.2579</v>
       </c>
       <c r="B20" s="0">
-        <v>364.3437</v>
+        <v>375.9838</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1704</v>
+        <v>0.2788</v>
       </c>
       <c r="B21" s="0">
-        <v>368.9064</v>
+        <v>377.0755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1986</v>
+        <v>0.3034</v>
       </c>
       <c r="B22" s="0">
-        <v>372.6047</v>
+        <v>378.2884</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2262</v>
+        <v>0.3274</v>
       </c>
       <c r="B23" s="0">
-        <v>374.4812</v>
+        <v>378.8949</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.256</v>
+        <v>0.3508</v>
       </c>
       <c r="B24" s="0">
-        <v>376.5347</v>
+        <v>379.7439</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2827</v>
+        <v>0.3742</v>
       </c>
       <c r="B25" s="0">
-        <v>377.9395</v>
+        <v>380.3504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3111</v>
+        <v>0.3982</v>
       </c>
       <c r="B26" s="0">
-        <v>378.7277</v>
+        <v>381.1995</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3393</v>
+        <v>0.4229</v>
       </c>
       <c r="B27" s="0">
-        <v>379.5792</v>
+        <v>381.5633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3677</v>
+        <v>0.4494</v>
       </c>
       <c r="B28" s="0">
-        <v>380.0098</v>
+        <v>382.0485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.3946</v>
+        <v>0.4735</v>
       </c>
       <c r="B29" s="0">
-        <v>380.9004</v>
+        <v>382.4124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4261</v>
+        <v>0.4987</v>
       </c>
       <c r="B30" s="0">
-        <v>381.922</v>
+        <v>382.8976</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4564</v>
+        <v>0.5234</v>
       </c>
       <c r="B31" s="0">
-        <v>382.3056</v>
+        <v>383.2615</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4844</v>
+        <v>0.5487</v>
       </c>
       <c r="B32" s="0">
-        <v>382.7835</v>
+        <v>383.504</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5131</v>
+        <v>0.5487</v>
       </c>
       <c r="B33" s="0">
-        <v>382.8024</v>
+        <v>383.504</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5425</v>
+        <v>0.5487</v>
       </c>
       <c r="B34" s="0">
-        <v>383.2714</v>
+        <v>383.6253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.5739</v>
+        <v>0.5733</v>
       </c>
       <c r="B35" s="0">
-        <v>383.582</v>
+        <v>383.9892</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6062</v>
+        <v>0.598</v>
       </c>
       <c r="B36" s="0">
-        <v>384.0739</v>
+        <v>384.3531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6344</v>
+        <v>0.6113</v>
       </c>
       <c r="B37" s="0">
-        <v>384.4102</v>
+        <v>384.717</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6606</v>
+        <v>0.6239</v>
       </c>
       <c r="B38" s="0">
-        <v>384.2787</v>
+        <v>384.717</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6921</v>
+        <v>0.6365</v>
       </c>
       <c r="B39" s="0">
-        <v>384.6686</v>
+        <v>384.717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7186</v>
+        <v>0.6485</v>
       </c>
       <c r="B40" s="0">
-        <v>385.2723</v>
+        <v>384.717</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7472</v>
+        <v>0.6606</v>
       </c>
       <c r="B41" s="0">
-        <v>385.6006</v>
+        <v>384.9596</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7754</v>
+        <v>0.6732</v>
       </c>
       <c r="B42" s="0">
-        <v>385.8942</v>
+        <v>385.2022</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8036</v>
+        <v>0.6865</v>
       </c>
       <c r="B43" s="0">
-        <v>386.3159</v>
+        <v>385.2022</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8318</v>
+        <v>0.6979</v>
       </c>
       <c r="B44" s="0">
-        <v>386.8743</v>
+        <v>385.4447</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.86</v>
+        <v>0.7111</v>
       </c>
       <c r="B45" s="0">
-        <v>387.4214</v>
+        <v>385.6873</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.8882</v>
+        <v>0.7244</v>
       </c>
       <c r="B46" s="0">
-        <v>387.5479</v>
+        <v>385.8086</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9165</v>
+        <v>0.737</v>
       </c>
       <c r="B47" s="0">
-        <v>388.2915</v>
+        <v>385.8086</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9447</v>
+        <v>0.7491</v>
       </c>
       <c r="B48" s="0">
-        <v>389.0939</v>
+        <v>385.9299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.9729</v>
+        <v>0.7617</v>
       </c>
       <c r="B49" s="0">
-        <v>390.0131</v>
+        <v>386.0512</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.9924</v>
+        <v>0.7737</v>
       </c>
       <c r="B50" s="0">
-        <v>390.7129</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>386.1725</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.7851</v>
+      </c>
+      <c r="B51" s="0">
+        <v>386.4151</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.799</v>
+      </c>
+      <c r="B52" s="0">
+        <v>386.4151</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.8104</v>
+      </c>
+      <c r="B53" s="0">
+        <v>386.6577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.8236</v>
+      </c>
+      <c r="B54" s="0">
+        <v>386.6577</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.8369</v>
+      </c>
+      <c r="B55" s="0">
+        <v>386.9003</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.8483</v>
+      </c>
+      <c r="B56" s="0">
+        <v>386.9003</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.8603</v>
+      </c>
+      <c r="B57" s="0">
+        <v>387.0216</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.8736</v>
+      </c>
+      <c r="B58" s="0">
+        <v>387.2642</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.8862</v>
+      </c>
+      <c r="B59" s="0">
+        <v>387.5067</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.8963</v>
+      </c>
+      <c r="B60" s="0">
+        <v>387.7493</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.9071</v>
+      </c>
+      <c r="B61" s="0">
+        <v>387.8706</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.9166</v>
+      </c>
+      <c r="B62" s="0">
+        <v>388.1132</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.9273</v>
+      </c>
+      <c r="B63" s="0">
+        <v>388.2345</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.9368</v>
+      </c>
+      <c r="B64" s="0">
+        <v>388.7197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.9482</v>
+      </c>
+      <c r="B65" s="0">
+        <v>388.9623</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.9595</v>
+      </c>
+      <c r="B66" s="0">
+        <v>389.3261</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.9684</v>
+      </c>
+      <c r="B67" s="0">
+        <v>389.8113</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.976</v>
+      </c>
+      <c r="B68" s="0">
+        <v>390.0539</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.9912</v>
+      </c>
+      <c r="B69" s="0">
+        <v>391.2668</v>
+      </c>
+    </row>
+    <row r="70"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
@@ -5,22 +5,30 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5_1 f5_1  0-1-220-400 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 b  0&amp;1&amp;20&amp;200 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 c  0&amp;1&amp;10&amp;40 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>f5_1</t>
+    <t>b</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f5_1</t>
   </si>
 </sst>
 </file>
@@ -65,6 +73,634 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 b  0&amp;1&amp;20&amp;200 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 b  0&amp;1&amp;20&amp;200 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 c  0&amp;1&amp;10&amp;40 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 c  0&amp;1&amp;10&amp;40 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -156,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_1 f5_1  0-1-220-400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_1 f5_1  0-1-220-400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -418,7 +1054,1129 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -957,6 +2715,76 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1271,6 +3099,1158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9936</v>
+      </c>
+      <c r="B3" s="0">
+        <v>195.5411</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9923</v>
+      </c>
+      <c r="B4" s="0">
+        <v>191.4342</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B5" s="0">
+        <v>188.3833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.9833</v>
+      </c>
+      <c r="B6" s="0">
+        <v>185.2151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.9794</v>
+      </c>
+      <c r="B7" s="0">
+        <v>183.103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.9743</v>
+      </c>
+      <c r="B8" s="0">
+        <v>181.6949</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.9685</v>
+      </c>
+      <c r="B9" s="0">
+        <v>180.1695</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.9582</v>
+      </c>
+      <c r="B10" s="0">
+        <v>178.4094</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.9472</v>
+      </c>
+      <c r="B11" s="0">
+        <v>177.1186</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.9382</v>
+      </c>
+      <c r="B12" s="0">
+        <v>176.4146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.9285</v>
+      </c>
+      <c r="B13" s="0">
+        <v>175.5932</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.9182</v>
+      </c>
+      <c r="B14" s="0">
+        <v>175.0065</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.9085</v>
+      </c>
+      <c r="B15" s="0">
+        <v>174.4198</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.8976</v>
+      </c>
+      <c r="B16" s="0">
+        <v>174.0678</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.886</v>
+      </c>
+      <c r="B17" s="0">
+        <v>173.5984</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.8737</v>
+      </c>
+      <c r="B18" s="0">
+        <v>173.1291</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.8615</v>
+      </c>
+      <c r="B19" s="0">
+        <v>172.8944</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.8486</v>
+      </c>
+      <c r="B20" s="0">
+        <v>172.5424</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.8363</v>
+      </c>
+      <c r="B21" s="0">
+        <v>172.073</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.8241</v>
+      </c>
+      <c r="B22" s="0">
+        <v>171.9557</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.8112</v>
+      </c>
+      <c r="B23" s="0">
+        <v>171.6037</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7983</v>
+      </c>
+      <c r="B24" s="0">
+        <v>171.369</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.786</v>
+      </c>
+      <c r="B25" s="0">
+        <v>171.2516</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.7738</v>
+      </c>
+      <c r="B26" s="0">
+        <v>170.8996</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.7609</v>
+      </c>
+      <c r="B27" s="0">
+        <v>170.5476</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.7487</v>
+      </c>
+      <c r="B28" s="0">
+        <v>170.4302</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.7364</v>
+      </c>
+      <c r="B29" s="0">
+        <v>170.1956</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.7235</v>
+      </c>
+      <c r="B30" s="0">
+        <v>169.9609</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7106</v>
+      </c>
+      <c r="B31" s="0">
+        <v>169.7262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6984</v>
+      </c>
+      <c r="B32" s="0">
+        <v>169.4915</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6861</v>
+      </c>
+      <c r="B33" s="0">
+        <v>169.2568</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.6732</v>
+      </c>
+      <c r="B34" s="0">
+        <v>169.0222</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.661</v>
+      </c>
+      <c r="B35" s="0">
+        <v>168.9048</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.6487</v>
+      </c>
+      <c r="B36" s="0">
+        <v>168.5528</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.6365</v>
+      </c>
+      <c r="B37" s="0">
+        <v>168.3181</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.6242</v>
+      </c>
+      <c r="B38" s="0">
+        <v>168.0834</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.6113</v>
+      </c>
+      <c r="B39" s="0">
+        <v>167.8488</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.5997</v>
+      </c>
+      <c r="B40" s="0">
+        <v>167.4967</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.5746</v>
+      </c>
+      <c r="B41" s="0">
+        <v>167.0274</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.5494</v>
+      </c>
+      <c r="B42" s="0">
+        <v>166.4407</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.5237</v>
+      </c>
+      <c r="B43" s="0">
+        <v>165.854</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.4992</v>
+      </c>
+      <c r="B44" s="0">
+        <v>165.2673</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.4734</v>
+      </c>
+      <c r="B45" s="0">
+        <v>164.6806</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.4502</v>
+      </c>
+      <c r="B46" s="0">
+        <v>164.0939</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.4244</v>
+      </c>
+      <c r="B47" s="0">
+        <v>163.2725</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.3986</v>
+      </c>
+      <c r="B48" s="0">
+        <v>162.5684</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.3747</v>
+      </c>
+      <c r="B49" s="0">
+        <v>161.8644</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.3528</v>
+      </c>
+      <c r="B50" s="0">
+        <v>160.8083</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.3277</v>
+      </c>
+      <c r="B51" s="0">
+        <v>160.1043</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.3025</v>
+      </c>
+      <c r="B52" s="0">
+        <v>159.0482</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.2774</v>
+      </c>
+      <c r="B53" s="0">
+        <v>158.2269</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.2548</v>
+      </c>
+      <c r="B54" s="0">
+        <v>157.2881</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.2316</v>
+      </c>
+      <c r="B55" s="0">
+        <v>156.1147</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.2078</v>
+      </c>
+      <c r="B56" s="0">
+        <v>154.9413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.1826</v>
+      </c>
+      <c r="B57" s="0">
+        <v>153.2986</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.1568</v>
+      </c>
+      <c r="B58" s="0">
+        <v>151.7731</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.1278</v>
+      </c>
+      <c r="B59" s="0">
+        <v>149.661</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.1046</v>
+      </c>
+      <c r="B60" s="0">
+        <v>147.7836</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.0756</v>
+      </c>
+      <c r="B61" s="0">
+        <v>144.6154</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.0492</v>
+      </c>
+      <c r="B62" s="0">
+        <v>141.2125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.0395</v>
+      </c>
+      <c r="B63" s="0">
+        <v>139.3351</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.0286</v>
+      </c>
+      <c r="B64" s="0">
+        <v>136.9883</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.0196</v>
+      </c>
+      <c r="B65" s="0">
+        <v>134.4068</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.0112</v>
+      </c>
+      <c r="B66" s="0">
+        <v>131.1213</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.008</v>
+      </c>
+      <c r="B67" s="0">
+        <v>128.8918</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.0035</v>
+      </c>
+      <c r="B68" s="0">
+        <v>120.2086</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.0022</v>
+      </c>
+      <c r="B69" s="0">
+        <v>114.9283</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>-0.0003</v>
+      </c>
+      <c r="B70" s="0">
+        <v>107.4185</v>
+      </c>
+    </row>
+    <row r="71"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0014</v>
+      </c>
+      <c r="B3" s="0">
+        <v>12.7734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0021</v>
+      </c>
+      <c r="B4" s="0">
+        <v>14.1016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0047</v>
+      </c>
+      <c r="B5" s="0">
+        <v>15.1172</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0093</v>
+      </c>
+      <c r="B6" s="0">
+        <v>17.0313</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0216</v>
+      </c>
+      <c r="B7" s="0">
+        <v>17.8906</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.03</v>
+      </c>
+      <c r="B8" s="0">
+        <v>18.2813</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0396</v>
+      </c>
+      <c r="B9" s="0">
+        <v>18.7109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0486</v>
+      </c>
+      <c r="B10" s="0">
+        <v>18.9844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0757</v>
+      </c>
+      <c r="B11" s="0">
+        <v>19.4922</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1014</v>
+      </c>
+      <c r="B12" s="0">
+        <v>19.7656</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1266</v>
+      </c>
+      <c r="B13" s="0">
+        <v>20.0391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1517</v>
+      </c>
+      <c r="B14" s="0">
+        <v>20.1953</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.1761</v>
+      </c>
+      <c r="B15" s="0">
+        <v>20.3906</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2012</v>
+      </c>
+      <c r="B16" s="0">
+        <v>20.5078</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.227</v>
+      </c>
+      <c r="B17" s="0">
+        <v>20.5859</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2508</v>
+      </c>
+      <c r="B18" s="0">
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2752</v>
+      </c>
+      <c r="B19" s="0">
+        <v>20.7813</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.301</v>
+      </c>
+      <c r="B20" s="0">
+        <v>20.8984</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3254</v>
+      </c>
+      <c r="B21" s="0">
+        <v>20.9375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3492</v>
+      </c>
+      <c r="B22" s="0">
+        <v>20.9766</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.375</v>
+      </c>
+      <c r="B23" s="0">
+        <v>21.0938</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3988</v>
+      </c>
+      <c r="B24" s="0">
+        <v>21.1328</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4252</v>
+      </c>
+      <c r="B25" s="0">
+        <v>21.2109</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.449</v>
+      </c>
+      <c r="B26" s="0">
+        <v>21.3281</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4741</v>
+      </c>
+      <c r="B27" s="0">
+        <v>21.2891</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.4998</v>
+      </c>
+      <c r="B28" s="0">
+        <v>21.4063</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5256</v>
+      </c>
+      <c r="B29" s="0">
+        <v>21.5234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.5507</v>
+      </c>
+      <c r="B30" s="0">
+        <v>21.5625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.5745</v>
+      </c>
+      <c r="B31" s="0">
+        <v>21.6016</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6002</v>
+      </c>
+      <c r="B32" s="0">
+        <v>21.6797</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6118</v>
+      </c>
+      <c r="B33" s="0">
+        <v>21.6797</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.6247</v>
+      </c>
+      <c r="B34" s="0">
+        <v>21.7578</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.6382</v>
+      </c>
+      <c r="B35" s="0">
+        <v>21.7969</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.6504</v>
+      </c>
+      <c r="B36" s="0">
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.6627</v>
+      </c>
+      <c r="B37" s="0">
+        <v>21.9141</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.6755</v>
+      </c>
+      <c r="B38" s="0">
+        <v>22.0313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.6878</v>
+      </c>
+      <c r="B39" s="0">
+        <v>22.0313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.6994</v>
+      </c>
+      <c r="B40" s="0">
+        <v>22.1094</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.7135</v>
+      </c>
+      <c r="B41" s="0">
+        <v>22.1875</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.7264</v>
+      </c>
+      <c r="B42" s="0">
+        <v>22.2656</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.7386</v>
+      </c>
+      <c r="B43" s="0">
+        <v>22.3438</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.7509</v>
+      </c>
+      <c r="B44" s="0">
+        <v>22.3828</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.7624</v>
+      </c>
+      <c r="B45" s="0">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.776</v>
+      </c>
+      <c r="B46" s="0">
+        <v>22.5391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.7869</v>
+      </c>
+      <c r="B47" s="0">
+        <v>22.6172</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.7998</v>
+      </c>
+      <c r="B48" s="0">
+        <v>22.7734</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.8126</v>
+      </c>
+      <c r="B49" s="0">
+        <v>22.8125</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.8242</v>
+      </c>
+      <c r="B50" s="0">
+        <v>23.0078</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.8384</v>
+      </c>
+      <c r="B51" s="0">
+        <v>23.1641</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.85</v>
+      </c>
+      <c r="B52" s="0">
+        <v>23.3594</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.8629</v>
+      </c>
+      <c r="B53" s="0">
+        <v>23.5547</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.8758</v>
+      </c>
+      <c r="B54" s="0">
+        <v>23.8672</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.8873</v>
+      </c>
+      <c r="B55" s="0">
+        <v>24.1016</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.9009</v>
+      </c>
+      <c r="B56" s="0">
+        <v>24.6094</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.9118</v>
+      </c>
+      <c r="B57" s="0">
+        <v>25.0781</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.9202</v>
+      </c>
+      <c r="B58" s="0">
+        <v>25.4297</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.9299</v>
+      </c>
+      <c r="B59" s="0">
+        <v>25.8594</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.9409</v>
+      </c>
+      <c r="B60" s="0">
+        <v>26.3672</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.9499</v>
+      </c>
+      <c r="B61" s="0">
+        <v>26.9922</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.9538</v>
+      </c>
+      <c r="B62" s="0">
+        <v>27.3438</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.9596</v>
+      </c>
+      <c r="B63" s="0">
+        <v>27.7734</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.9641</v>
+      </c>
+      <c r="B64" s="0">
+        <v>28.3203</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.9699</v>
+      </c>
+      <c r="B65" s="0">
+        <v>28.8672</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.9745</v>
+      </c>
+      <c r="B66" s="0">
+        <v>29.6875</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.9797</v>
+      </c>
+      <c r="B67" s="0">
+        <v>30.7031</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.9849</v>
+      </c>
+      <c r="B68" s="0">
+        <v>31.9922</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.9894</v>
+      </c>
+      <c r="B69" s="0">
+        <v>33.9844</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.9915</v>
+      </c>
+      <c r="B70" s="0">
+        <v>36.0156</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.9942</v>
+      </c>
+      <c r="B71" s="0">
+        <v>38.7891</v>
+      </c>
+    </row>
+    <row r="72"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1279,7 +4259,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5 b  0&amp;1&amp;20&amp;200 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 5 c  0&amp;1&amp;10&amp;40 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5_2 b  0&amp;1&amp;20&amp;200 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5_3 c  0&amp;1&amp;10&amp;40 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>b</t>
+    <t>f5_1</t>
   </si>
   <si>
     <t>X</t>
@@ -25,10 +25,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>c</t>
+    <t>b</t>
   </si>
   <si>
-    <t>f5_1</t>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -73,634 +73,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 5' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 5 b  0&amp;1&amp;20&amp;200 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 5 b  0&amp;1&amp;20&amp;200 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="200"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 5' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 5 c  0&amp;1&amp;10&amp;40 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 5 c  0&amp;1&amp;10&amp;40 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="40"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1014,6 +386,634 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 5_2' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5_2 b  0&amp;1&amp;20&amp;200 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5_2 b  0&amp;1&amp;20&amp;200 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 5_3' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5_3 c  0&amp;1&amp;10&amp;40 '!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5_3 c  0&amp;1&amp;10&amp;40 '!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3099,6 +3099,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>241.3477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0019</v>
+      </c>
+      <c r="B4" s="0">
+        <v>257.7224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B5" s="0">
+        <v>274.3396</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0076</v>
+      </c>
+      <c r="B6" s="0">
+        <v>300.903</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0101</v>
+      </c>
+      <c r="B7" s="0">
+        <v>304.9057</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0101</v>
+      </c>
+      <c r="B8" s="0">
+        <v>304.9057</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0183</v>
+      </c>
+      <c r="B9" s="0">
+        <v>315.3369</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0297</v>
+      </c>
+      <c r="B10" s="0">
+        <v>324.9191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0386</v>
+      </c>
+      <c r="B11" s="0">
+        <v>331.469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.048</v>
+      </c>
+      <c r="B12" s="0">
+        <v>336.9272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0727</v>
+      </c>
+      <c r="B13" s="0">
+        <v>347.1159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1024</v>
+      </c>
+      <c r="B14" s="0">
+        <v>356.5768</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.1302</v>
+      </c>
+      <c r="B15" s="0">
+        <v>362.2776</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1593</v>
+      </c>
+      <c r="B16" s="0">
+        <v>367.1294</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1884</v>
+      </c>
+      <c r="B17" s="0">
+        <v>370.6469</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2149</v>
+      </c>
+      <c r="B18" s="0">
+        <v>373.1941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.237</v>
+      </c>
+      <c r="B19" s="0">
+        <v>374.6496</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2579</v>
+      </c>
+      <c r="B20" s="0">
+        <v>375.9838</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2788</v>
+      </c>
+      <c r="B21" s="0">
+        <v>377.0755</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.3034</v>
+      </c>
+      <c r="B22" s="0">
+        <v>378.2884</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.3274</v>
+      </c>
+      <c r="B23" s="0">
+        <v>378.8949</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.3508</v>
+      </c>
+      <c r="B24" s="0">
+        <v>379.7439</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.3742</v>
+      </c>
+      <c r="B25" s="0">
+        <v>380.3504</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3982</v>
+      </c>
+      <c r="B26" s="0">
+        <v>381.1995</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.4229</v>
+      </c>
+      <c r="B27" s="0">
+        <v>381.5633</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.4494</v>
+      </c>
+      <c r="B28" s="0">
+        <v>382.0485</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.4735</v>
+      </c>
+      <c r="B29" s="0">
+        <v>382.4124</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.4987</v>
+      </c>
+      <c r="B30" s="0">
+        <v>382.8976</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.5234</v>
+      </c>
+      <c r="B31" s="0">
+        <v>383.2615</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.5487</v>
+      </c>
+      <c r="B32" s="0">
+        <v>383.504</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.5487</v>
+      </c>
+      <c r="B33" s="0">
+        <v>383.504</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.5487</v>
+      </c>
+      <c r="B34" s="0">
+        <v>383.6253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.5733</v>
+      </c>
+      <c r="B35" s="0">
+        <v>383.9892</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.598</v>
+      </c>
+      <c r="B36" s="0">
+        <v>384.3531</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.6113</v>
+      </c>
+      <c r="B37" s="0">
+        <v>384.717</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.6239</v>
+      </c>
+      <c r="B38" s="0">
+        <v>384.717</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.6365</v>
+      </c>
+      <c r="B39" s="0">
+        <v>384.717</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.6485</v>
+      </c>
+      <c r="B40" s="0">
+        <v>384.717</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.6606</v>
+      </c>
+      <c r="B41" s="0">
+        <v>384.9596</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.6732</v>
+      </c>
+      <c r="B42" s="0">
+        <v>385.2022</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.6865</v>
+      </c>
+      <c r="B43" s="0">
+        <v>385.2022</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.6979</v>
+      </c>
+      <c r="B44" s="0">
+        <v>385.4447</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.7111</v>
+      </c>
+      <c r="B45" s="0">
+        <v>385.6873</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.7244</v>
+      </c>
+      <c r="B46" s="0">
+        <v>385.8086</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.737</v>
+      </c>
+      <c r="B47" s="0">
+        <v>385.8086</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.7491</v>
+      </c>
+      <c r="B48" s="0">
+        <v>385.9299</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.7617</v>
+      </c>
+      <c r="B49" s="0">
+        <v>386.0512</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.7737</v>
+      </c>
+      <c r="B50" s="0">
+        <v>386.1725</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.7851</v>
+      </c>
+      <c r="B51" s="0">
+        <v>386.4151</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.799</v>
+      </c>
+      <c r="B52" s="0">
+        <v>386.4151</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.8104</v>
+      </c>
+      <c r="B53" s="0">
+        <v>386.6577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.8236</v>
+      </c>
+      <c r="B54" s="0">
+        <v>386.6577</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.8369</v>
+      </c>
+      <c r="B55" s="0">
+        <v>386.9003</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.8483</v>
+      </c>
+      <c r="B56" s="0">
+        <v>386.9003</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.8603</v>
+      </c>
+      <c r="B57" s="0">
+        <v>387.0216</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.8736</v>
+      </c>
+      <c r="B58" s="0">
+        <v>387.2642</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.8862</v>
+      </c>
+      <c r="B59" s="0">
+        <v>387.5067</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.8963</v>
+      </c>
+      <c r="B60" s="0">
+        <v>387.7493</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.9071</v>
+      </c>
+      <c r="B61" s="0">
+        <v>387.8706</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.9166</v>
+      </c>
+      <c r="B62" s="0">
+        <v>388.1132</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.9273</v>
+      </c>
+      <c r="B63" s="0">
+        <v>388.2345</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.9368</v>
+      </c>
+      <c r="B64" s="0">
+        <v>388.7197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.9482</v>
+      </c>
+      <c r="B65" s="0">
+        <v>388.9623</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.9595</v>
+      </c>
+      <c r="B66" s="0">
+        <v>389.3261</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.9684</v>
+      </c>
+      <c r="B67" s="0">
+        <v>389.8113</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.976</v>
+      </c>
+      <c r="B68" s="0">
+        <v>390.0539</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.9912</v>
+      </c>
+      <c r="B69" s="0">
+        <v>391.2668</v>
+      </c>
+    </row>
+    <row r="70"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3107,7 +3671,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -3669,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B72"/>
   <sheetViews>
@@ -3679,7 +4243,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4247,568 +4811,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>-0</v>
-      </c>
-      <c r="B3" s="0">
-        <v>241.3477</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0019</v>
-      </c>
-      <c r="B4" s="0">
-        <v>257.7224</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0044</v>
-      </c>
-      <c r="B5" s="0">
-        <v>274.3396</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0076</v>
-      </c>
-      <c r="B6" s="0">
-        <v>300.903</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B7" s="0">
-        <v>304.9057</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="B8" s="0">
-        <v>304.9057</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0183</v>
-      </c>
-      <c r="B9" s="0">
-        <v>315.3369</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0297</v>
-      </c>
-      <c r="B10" s="0">
-        <v>324.9191</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0386</v>
-      </c>
-      <c r="B11" s="0">
-        <v>331.469</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.048</v>
-      </c>
-      <c r="B12" s="0">
-        <v>336.9272</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0727</v>
-      </c>
-      <c r="B13" s="0">
-        <v>347.1159</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.1024</v>
-      </c>
-      <c r="B14" s="0">
-        <v>356.5768</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.1302</v>
-      </c>
-      <c r="B15" s="0">
-        <v>362.2776</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.1593</v>
-      </c>
-      <c r="B16" s="0">
-        <v>367.1294</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.1884</v>
-      </c>
-      <c r="B17" s="0">
-        <v>370.6469</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.2149</v>
-      </c>
-      <c r="B18" s="0">
-        <v>373.1941</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.237</v>
-      </c>
-      <c r="B19" s="0">
-        <v>374.6496</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2579</v>
-      </c>
-      <c r="B20" s="0">
-        <v>375.9838</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2788</v>
-      </c>
-      <c r="B21" s="0">
-        <v>377.0755</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.3034</v>
-      </c>
-      <c r="B22" s="0">
-        <v>378.2884</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.3274</v>
-      </c>
-      <c r="B23" s="0">
-        <v>378.8949</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.3508</v>
-      </c>
-      <c r="B24" s="0">
-        <v>379.7439</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.3742</v>
-      </c>
-      <c r="B25" s="0">
-        <v>380.3504</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3982</v>
-      </c>
-      <c r="B26" s="0">
-        <v>381.1995</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.4229</v>
-      </c>
-      <c r="B27" s="0">
-        <v>381.5633</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.4494</v>
-      </c>
-      <c r="B28" s="0">
-        <v>382.0485</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.4735</v>
-      </c>
-      <c r="B29" s="0">
-        <v>382.4124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.4987</v>
-      </c>
-      <c r="B30" s="0">
-        <v>382.8976</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.5234</v>
-      </c>
-      <c r="B31" s="0">
-        <v>383.2615</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5487</v>
-      </c>
-      <c r="B32" s="0">
-        <v>383.504</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.5487</v>
-      </c>
-      <c r="B33" s="0">
-        <v>383.504</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.5487</v>
-      </c>
-      <c r="B34" s="0">
-        <v>383.6253</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5733</v>
-      </c>
-      <c r="B35" s="0">
-        <v>383.9892</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.598</v>
-      </c>
-      <c r="B36" s="0">
-        <v>384.3531</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.6113</v>
-      </c>
-      <c r="B37" s="0">
-        <v>384.717</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6239</v>
-      </c>
-      <c r="B38" s="0">
-        <v>384.717</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6365</v>
-      </c>
-      <c r="B39" s="0">
-        <v>384.717</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6485</v>
-      </c>
-      <c r="B40" s="0">
-        <v>384.717</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.6606</v>
-      </c>
-      <c r="B41" s="0">
-        <v>384.9596</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6732</v>
-      </c>
-      <c r="B42" s="0">
-        <v>385.2022</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.6865</v>
-      </c>
-      <c r="B43" s="0">
-        <v>385.2022</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.6979</v>
-      </c>
-      <c r="B44" s="0">
-        <v>385.4447</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7111</v>
-      </c>
-      <c r="B45" s="0">
-        <v>385.6873</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7244</v>
-      </c>
-      <c r="B46" s="0">
-        <v>385.8086</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.737</v>
-      </c>
-      <c r="B47" s="0">
-        <v>385.8086</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.7491</v>
-      </c>
-      <c r="B48" s="0">
-        <v>385.9299</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.7617</v>
-      </c>
-      <c r="B49" s="0">
-        <v>386.0512</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7737</v>
-      </c>
-      <c r="B50" s="0">
-        <v>386.1725</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.7851</v>
-      </c>
-      <c r="B51" s="0">
-        <v>386.4151</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.799</v>
-      </c>
-      <c r="B52" s="0">
-        <v>386.4151</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.8104</v>
-      </c>
-      <c r="B53" s="0">
-        <v>386.6577</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.8236</v>
-      </c>
-      <c r="B54" s="0">
-        <v>386.6577</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.8369</v>
-      </c>
-      <c r="B55" s="0">
-        <v>386.9003</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.8483</v>
-      </c>
-      <c r="B56" s="0">
-        <v>386.9003</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.8603</v>
-      </c>
-      <c r="B57" s="0">
-        <v>387.0216</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.8736</v>
-      </c>
-      <c r="B58" s="0">
-        <v>387.2642</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0">
-        <v>0.8862</v>
-      </c>
-      <c r="B59" s="0">
-        <v>387.5067</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0">
-        <v>0.8963</v>
-      </c>
-      <c r="B60" s="0">
-        <v>387.7493</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0">
-        <v>0.9071</v>
-      </c>
-      <c r="B61" s="0">
-        <v>387.8706</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0">
-        <v>0.9166</v>
-      </c>
-      <c r="B62" s="0">
-        <v>388.1132</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0">
-        <v>0.9273</v>
-      </c>
-      <c r="B63" s="0">
-        <v>388.2345</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0">
-        <v>0.9368</v>
-      </c>
-      <c r="B64" s="0">
-        <v>388.7197</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0">
-        <v>0.9482</v>
-      </c>
-      <c r="B65" s="0">
-        <v>388.9623</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0">
-        <v>0.9595</v>
-      </c>
-      <c r="B66" s="0">
-        <v>389.3261</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0">
-        <v>0.9684</v>
-      </c>
-      <c r="B67" s="0">
-        <v>389.8113</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0">
-        <v>0.976</v>
-      </c>
-      <c r="B68" s="0">
-        <v>390.0539</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0">
-        <v>0.9912</v>
-      </c>
-      <c r="B69" s="0">
-        <v>391.2668</v>
-      </c>
-    </row>
-    <row r="70"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 123 Coconut kernel-derived activated carbon/Data123_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 5_2 b  0&amp;1&amp;20&amp;200 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 5_3 c  0&amp;1&amp;10&amp;40 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5_1 AC600  0&amp;1&amp;220&amp;400 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5_2 AC800  0&amp;1&amp;20&amp;200 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5_3 AC1000  0&amp;1&amp;10&amp;40 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>f5_1</t>
+    <t>AC600</t>
   </si>
   <si>
     <t>X</t>
@@ -25,10 +25,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>b</t>
+    <t>AC800</t>
   </si>
   <si>
-    <t>c</t>
+    <t>AC1000</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki f5_1 z wykresu 'Figure 5_1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC600 z wykresu 'Figure 5_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_1 AC600  0&amp;1&amp;220&amp;400 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_1 f5_1  0&amp;1&amp;220&amp;400 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_1 AC600  0&amp;1&amp;220&amp;400 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -419,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki b z wykresu 'Figure 5_2' </a:t>
+              <a:t>Izoterma adsorpcji probki AC800 z wykresu 'Figure 5_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_2 b  0&amp;1&amp;20&amp;200 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_2 AC800  0&amp;1&amp;20&amp;200 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_2 b  0&amp;1&amp;20&amp;200 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_2 AC800  0&amp;1&amp;20&amp;200 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -733,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki c z wykresu 'Figure 5_3' </a:t>
+              <a:t>Izoterma adsorpcji probki AC1000 z wykresu 'Figure 5_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5_3 c  0&amp;1&amp;10&amp;40 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5_3 AC1000  0&amp;1&amp;10&amp;40 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5_3 c  0&amp;1&amp;10&amp;40 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5_3 AC1000  0&amp;1&amp;10&amp;40 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
